--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\FibonacciTuringMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D9D08-BF5D-4230-A207-D587E44C623D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1042F-E1EB-4A01-A465-4269D03C0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AB8C8CE-3BF7-4D1C-B0D2-D79088702E88}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Tiempo de Ejecucion (s)</t>
   </si>
   <si>
     <t>Numero de Caracteres  X (n)</t>
+  </si>
+  <si>
+    <t>Numero de Pasos (n)</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,15 +76,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,16 +153,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Grafica</a:t>
+              <a:t>Tiempo de Ejecucion (s) vs Numero de Pasos (n)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Tiempo de Ejecucion vs Numero de caracteres</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7159667541557316E-2"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -225,14 +247,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11021653543307086"/>
-                  <c:y val="-0.17212962962962963"/>
+                  <c:x val="0.14320866141732283"/>
+                  <c:y val="-0.17910669975186105"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -267,7 +303,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$19</c:f>
+              <c:f>Sheet1!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -275,40 +311,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>4613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>11162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>27792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>70517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>181098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +400,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C876-4F24-A7BB-4E63DFD889ED}"/>
+              <c16:uniqueId val="{00000000-7AD7-4EF5-AB62-537C9BDFE74F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -376,11 +412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79464080"/>
-        <c:axId val="79466000"/>
+        <c:axId val="592437087"/>
+        <c:axId val="592436607"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79464080"/>
+        <c:axId val="592437087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +457,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Numero de caracteres (n)</a:t>
+                  <a:t>Numero De Pasos (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -492,12 +528,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79466000"/>
+        <c:crossAx val="592436607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79466000"/>
+        <c:axId val="592436607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,11 +574,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Tiempo De</a:t>
+                  <a:t>Tiempo</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> Ejecucion (s)</a:t>
+                  <a:t> de Ejecucion (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-ES"/>
               </a:p>
@@ -614,7 +650,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79464080"/>
+        <c:crossAx val="592437087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1231,22 +1267,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>206375</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06CF61E-4B76-71D5-1AAB-06F713941879}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F8716C-0C70-B242-6888-7395F0464F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,132 +1620,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ABE681-B42A-40B3-B98A-37A954031B34}">
-  <dimension ref="E6:F19"/>
+  <dimension ref="D6:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
     <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E7">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E8">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>8.7600000000000004E-4</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E9">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>9.3179999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E10">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>3.2328999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E11">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>204</v>
+      </c>
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>5.5929E-2</v>
       </c>
     </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E12">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>421</v>
+      </c>
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.161576</v>
       </c>
     </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E13">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <v>894</v>
+      </c>
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.201624</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E14">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E14" s="2">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.44628499999999999</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E15">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="2">
+        <v>4613</v>
+      </c>
+      <c r="E15" s="2">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>1.042333</v>
       </c>
     </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E16">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="2">
+        <v>11162</v>
+      </c>
+      <c r="E16" s="2">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2.7739820000000002</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="2">
+        <v>27792</v>
+      </c>
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>8.6789749999999994</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E18">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <v>70517</v>
+      </c>
+      <c r="E18" s="2">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>24.819934</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E19">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <v>181098</v>
+      </c>
+      <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>65.645655000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>